--- a/carriers_source_analyses/biogenic_waste.carrier.xlsx
+++ b/carriers_source_analyses/biogenic_waste.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -16,7 +16,6 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>Source</t>
   </si>
@@ -171,9 +170,6 @@
     <t>Quintel definition</t>
   </si>
   <si>
-    <t>This is a definition</t>
-  </si>
-  <si>
     <t>kg/MJ</t>
   </si>
   <si>
@@ -205,6 +201,80 @@
   </si>
   <si>
     <t>by assumption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>municipal wastes (biomass fraction)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t>CO2 emission from biomass is defined as 0</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
   </si>
 </sst>
 </file>
@@ -217,12 +287,26 @@
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -376,6 +460,33 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -733,551 +844,580 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="336">
+  <cellStyleXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="336">
+  <cellStyles count="340">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1524,6 +1664,10 @@
     <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1690,6 +1834,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="114655600"/>
+          <a:ext cx="9779000" cy="8293100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1818,24 +2005,6 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2199,10 +2368,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2239,13 +2408,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="74"/>
-      <c r="D9" s="113"/>
+      <c r="D9" s="109"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
-      <c r="D10" s="114"/>
+      <c r="D10" s="110"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -2255,7 +2424,7 @@
       <c r="C11" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="114"/>
+      <c r="D11" s="110"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
@@ -2263,7 +2432,7 @@
       <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="114"/>
+      <c r="D12" s="110"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
@@ -2271,7 +2440,7 @@
       <c r="C13" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="114"/>
+      <c r="D13" s="110"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -2279,13 +2448,13 @@
       <c r="C14" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="114"/>
+      <c r="D14" s="110"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="114"/>
+      <c r="D15" s="110"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -2295,7 +2464,7 @@
       <c r="C16" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="114"/>
+      <c r="D16" s="110"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -2303,7 +2472,7 @@
       <c r="C17" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="114"/>
+      <c r="D17" s="110"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -2311,7 +2480,7 @@
       <c r="C18" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="114"/>
+      <c r="D18" s="110"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -2319,7 +2488,7 @@
       <c r="C19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="114"/>
+      <c r="D19" s="110"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -2327,7 +2496,7 @@
       <c r="C20" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="114"/>
+      <c r="D20" s="110"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -2335,7 +2504,7 @@
       <c r="C21" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="114"/>
+      <c r="D21" s="110"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -2343,19 +2512,19 @@
       <c r="C22" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="114"/>
+      <c r="D22" s="110"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="114"/>
+      <c r="D23" s="110"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2373,11 +2542,9 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2401,28 +2568,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="118" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
+      <c r="B2" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="121"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -2475,7 +2642,7 @@
     <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -2493,36 +2660,36 @@
       <c r="D10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="98">
         <f>'Research data'!G6</f>
         <v>1</v>
       </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="96" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="128" t="s">
+      <c r="I10" s="115" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B11" s="23"/>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="96" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="112">
+        <v>43</v>
+      </c>
+      <c r="E11" s="108">
         <f>'Research data'!G7</f>
         <v>0</v>
       </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="100"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="97" t="s">
         <v>40</v>
       </c>
       <c r="J11" s="42"/>
@@ -2533,32 +2700,54 @@
         <v>38</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="102">
+        <v>42</v>
+      </c>
+      <c r="E12" s="98">
         <f>'Research data'!G8</f>
         <v>0</v>
       </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="100" t="s">
+      <c r="G12" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
+      <c r="E13" s="135">
+        <f>'Research data'!G9</f>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="134" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2574,7 +2763,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -2611,10 +2800,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:K8"/>
+  <dimension ref="B1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2627,14 +2816,14 @@
     <col min="6" max="6" width="12.625" style="63" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="63" customWidth="1"/>
     <col min="8" max="8" width="4.75" style="63" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="64" customWidth="1"/>
-    <col min="10" max="10" width="2.75" style="64" customWidth="1"/>
-    <col min="11" max="11" width="60" style="63" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="63"/>
+    <col min="9" max="10" width="9.875" style="64" customWidth="1"/>
+    <col min="11" max="11" width="2.75" style="64" customWidth="1"/>
+    <col min="12" max="12" width="60" style="63" customWidth="1"/>
+    <col min="13" max="16384" width="10.625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:19" ht="16" thickBot="1"/>
+    <row r="2" spans="2:19">
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -2644,9 +2833,10 @@
       <c r="H2" s="66"/>
       <c r="I2" s="67"/>
       <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-    </row>
-    <row r="3" spans="2:11" s="24" customFormat="1">
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
+    </row>
+    <row r="3" spans="2:19" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="93" t="s">
         <v>29</v>
@@ -2661,14 +2851,17 @@
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:19">
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -2677,13 +2870,14 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
       <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="2:19" ht="16" thickBot="1">
       <c r="B5" s="69"/>
       <c r="C5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -2692,17 +2886,18 @@
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+      <c r="K5" s="16"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" ht="16" thickBot="1">
       <c r="B6" s="69"/>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="103" t="s">
+      <c r="E6" s="99" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -2716,26 +2911,27 @@
       <c r="I6" s="17">
         <v>1</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="127" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="J6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="100" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="110">
+        <v>43</v>
+      </c>
+      <c r="G7" s="106">
         <f>I7</f>
         <v>0</v>
       </c>
@@ -2743,24 +2939,25 @@
       <c r="I7" s="17">
         <v>0</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="127" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="J7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="101" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="43">
         <f>I8</f>
@@ -2770,10 +2967,40 @@
       <c r="I8" s="17">
         <v>0</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="127" t="s">
-        <v>52</v>
-      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" s="133" customFormat="1" ht="16" thickBot="1">
+      <c r="B9" s="128"/>
+      <c r="C9" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="130">
+        <f>J9</f>
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="131"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="130">
+        <f>Notes!G43</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2794,7 +3021,7 @@
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2887,8 +3114,8 @@
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
       <c r="I6" s="50"/>
@@ -2898,21 +3125,32 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="49"/>
-      <c r="C7" s="111"/>
+      <c r="C7" s="126" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="57"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="E7" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>61</v>
+      </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
+      <c r="K7" s="148" t="s">
+        <v>62</v>
+      </c>
       <c r="L7" s="62"/>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="49"/>
-      <c r="C8" s="111"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="57"/>
-      <c r="E8" s="106"/>
+      <c r="E8" s="102"/>
       <c r="G8" s="52"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
@@ -2922,10 +3160,10 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="49"/>
-      <c r="C9" s="111"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="52"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
@@ -2935,16 +3173,16 @@
     </row>
     <row r="10" spans="2:12" ht="16">
       <c r="B10" s="49"/>
-      <c r="C10" s="111"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="60"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="108"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="58"/>
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
       <c r="J10" s="59"/>
       <c r="K10" s="53"/>
-      <c r="L10" s="109"/>
+      <c r="L10" s="105"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2959,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U4"/>
+  <dimension ref="B1:Y48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2971,87 +3209,1264 @@
     <col min="2" max="2" width="5" style="95" customWidth="1"/>
     <col min="3" max="5" width="7" style="95"/>
     <col min="6" max="6" width="10.875" style="95" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="95"/>
+    <col min="7" max="7" width="7.5" style="95" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="95" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
-    <row r="2" spans="2:21" s="24" customFormat="1">
-      <c r="B2" s="98"/>
-      <c r="C2" s="99" t="s">
+    <row r="1" spans="2:25" ht="16" thickBot="1"/>
+    <row r="2" spans="2:25" s="24" customFormat="1">
+      <c r="B2" s="117"/>
+      <c r="C2" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="99" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99" t="s">
+      <c r="D2" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-    </row>
-    <row r="3" spans="2:21">
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-    </row>
-    <row r="4" spans="2:21" customFormat="1" ht="16">
-      <c r="B4" s="96"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="121"/>
+      <c r="Y3" s="121"/>
+    </row>
+    <row r="4" spans="2:25" customFormat="1" ht="16">
+      <c r="B4" s="120"/>
+      <c r="C4" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+    </row>
+    <row r="5" spans="2:25" ht="16">
+      <c r="B5" s="120"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+    </row>
+    <row r="6" spans="2:25" ht="16">
+      <c r="B6" s="120"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="102"/>
+      <c r="Y6" s="102"/>
+    </row>
+    <row r="7" spans="2:25" ht="16">
+      <c r="B7" s="120"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+    </row>
+    <row r="8" spans="2:25" ht="16">
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+    </row>
+    <row r="9" spans="2:25" ht="16">
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+    </row>
+    <row r="10" spans="2:25" ht="16">
+      <c r="B10" s="120"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+    </row>
+    <row r="11" spans="2:25" ht="16">
+      <c r="B11" s="120"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+    </row>
+    <row r="12" spans="2:25">
+      <c r="B12" s="120"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+    </row>
+    <row r="13" spans="2:25">
+      <c r="B13" s="120"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+    </row>
+    <row r="14" spans="2:25">
+      <c r="B14" s="120"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+    </row>
+    <row r="15" spans="2:25">
+      <c r="B15" s="120"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+    </row>
+    <row r="16" spans="2:25">
+      <c r="B16" s="120"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+    </row>
+    <row r="17" spans="2:25">
+      <c r="B17" s="120"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+    </row>
+    <row r="18" spans="2:25">
+      <c r="B18" s="120"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+    </row>
+    <row r="19" spans="2:25">
+      <c r="B19" s="120"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+    </row>
+    <row r="20" spans="2:25" ht="16">
+      <c r="B20" s="120"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+    </row>
+    <row r="21" spans="2:25" ht="16">
+      <c r="B21" s="120"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+    </row>
+    <row r="22" spans="2:25" ht="16">
+      <c r="B22" s="120"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+    </row>
+    <row r="23" spans="2:25">
+      <c r="B23" s="120"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+    </row>
+    <row r="24" spans="2:25">
+      <c r="B24" s="120"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+    </row>
+    <row r="25" spans="2:25">
+      <c r="B25" s="120"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+    </row>
+    <row r="26" spans="2:25">
+      <c r="B26" s="120"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+    </row>
+    <row r="27" spans="2:25">
+      <c r="B27" s="120"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+    </row>
+    <row r="28" spans="2:25">
+      <c r="B28" s="120"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+    </row>
+    <row r="29" spans="2:25" ht="16">
+      <c r="B29" s="120"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+    </row>
+    <row r="30" spans="2:25" ht="16">
+      <c r="B30" s="120"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+    </row>
+    <row r="31" spans="2:25" ht="16">
+      <c r="B31" s="120"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="125"/>
+      <c r="Y31" s="125"/>
+    </row>
+    <row r="32" spans="2:25" ht="16">
+      <c r="B32" s="120"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+    </row>
+    <row r="33" spans="2:25" ht="16">
+      <c r="B33" s="120"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125"/>
+      <c r="W33" s="125"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="125"/>
+    </row>
+    <row r="34" spans="2:25" ht="16">
+      <c r="B34" s="120"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="125"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="125"/>
+      <c r="Y34" s="125"/>
+    </row>
+    <row r="35" spans="2:25" ht="16">
+      <c r="B35" s="120"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="125"/>
+      <c r="Y35" s="125"/>
+    </row>
+    <row r="36" spans="2:25" ht="16">
+      <c r="B36" s="120"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="125"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
+      <c r="Y36" s="125"/>
+    </row>
+    <row r="37" spans="2:25" ht="16">
+      <c r="B37" s="120"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
+      <c r="N37" s="125"/>
+      <c r="O37" s="125"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
+      <c r="U37" s="125"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="125"/>
+      <c r="X37" s="125"/>
+      <c r="Y37" s="125"/>
+    </row>
+    <row r="38" spans="2:25" ht="16">
+      <c r="B38" s="120"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
+      <c r="L38" s="125"/>
+      <c r="M38" s="125"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="125"/>
+      <c r="X38" s="125"/>
+      <c r="Y38" s="125"/>
+    </row>
+    <row r="39" spans="2:25" ht="16">
+      <c r="B39" s="120"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
+      <c r="V39" s="125"/>
+      <c r="W39" s="125"/>
+      <c r="X39" s="125"/>
+      <c r="Y39" s="125"/>
+    </row>
+    <row r="40" spans="2:25" ht="16">
+      <c r="B40" s="120"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+    </row>
+    <row r="41" spans="2:25" ht="16">
+      <c r="B41" s="120"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="123">
+        <v>1.24</v>
+      </c>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="123">
+        <v>100000</v>
+      </c>
+      <c r="H41" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
+      <c r="Y41" s="125"/>
+    </row>
+    <row r="42" spans="2:25" ht="16">
+      <c r="B42" s="120"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="123">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="123" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="125"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="125"/>
+      <c r="L42" s="125"/>
+      <c r="M42" s="125"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="125"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+    </row>
+    <row r="43" spans="2:25" ht="16">
+      <c r="B43" s="120"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="123">
+        <f>G41/G42</f>
+        <v>0.1</v>
+      </c>
+      <c r="H43" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="125"/>
+      <c r="J43" s="125"/>
+      <c r="K43" s="125"/>
+      <c r="L43" s="125"/>
+      <c r="M43" s="125"/>
+      <c r="N43" s="125"/>
+      <c r="O43" s="125"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+    </row>
+    <row r="44" spans="2:25" ht="16">
+      <c r="B44" s="120"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="125"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+    </row>
+    <row r="45" spans="2:25" ht="16">
+      <c r="B45" s="120"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="125"/>
+      <c r="O45" s="125"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="125"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="125"/>
+      <c r="W45" s="125"/>
+      <c r="X45" s="125"/>
+      <c r="Y45" s="125"/>
+    </row>
+    <row r="46" spans="2:25" ht="16">
+      <c r="B46" s="120"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
+      <c r="O46" s="125"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
+      <c r="Y46" s="125"/>
+    </row>
+    <row r="47" spans="2:25" ht="16">
+      <c r="B47" s="120"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="125"/>
+      <c r="P47" s="125"/>
+      <c r="Q47" s="125"/>
+      <c r="R47" s="125"/>
+      <c r="S47" s="125"/>
+      <c r="T47" s="125"/>
+      <c r="U47" s="125"/>
+      <c r="V47" s="125"/>
+      <c r="W47" s="125"/>
+      <c r="X47" s="125"/>
+      <c r="Y47" s="125"/>
+    </row>
+    <row r="48" spans="2:25" ht="16">
+      <c r="B48" s="120"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="125"/>
+      <c r="R48" s="125"/>
+      <c r="S48" s="125"/>
+      <c r="T48" s="125"/>
+      <c r="U48" s="125"/>
+      <c r="V48" s="125"/>
+      <c r="W48" s="125"/>
+      <c r="X48" s="125"/>
+      <c r="Y48" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/carriers_source_analyses/biogenic_waste.carrier.xlsx
+++ b/carriers_source_analyses/biogenic_waste.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="41200" yWindow="-3260" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -186,9 +194,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <t>biogenic_waste</t>
@@ -276,6 +281,11 @@
   <si>
     <t>Actual CO2 emission from biomass</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +297,7 @@
     <numFmt numFmtId="166" formatCode="0.0000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -457,11 +467,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -563,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -792,57 +797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1361,15 +1315,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1384,16 +1338,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1402,20 +1355,21 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1761,80 +1715,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1878,7 +1767,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -1991,12 +1880,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2005,6 +1895,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2339,42 +2230,42 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2383,7 +2274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -2392,17 +2283,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="73" t="s">
         <v>14</v>
@@ -2410,13 +2301,13 @@
       <c r="C9" s="74"/>
       <c r="D9" s="109"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="75"/>
       <c r="C10" s="76"/>
       <c r="D10" s="110"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="75" t="s">
         <v>15</v>
@@ -2426,7 +2317,7 @@
       </c>
       <c r="D11" s="110"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="75"/>
       <c r="C12" s="18" t="s">
@@ -2434,7 +2325,7 @@
       </c>
       <c r="D12" s="110"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="75"/>
       <c r="C13" s="78" t="s">
@@ -2442,7 +2333,7 @@
       </c>
       <c r="D13" s="110"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
@@ -2450,13 +2341,13 @@
       </c>
       <c r="D14" s="110"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="75"/>
       <c r="C15" s="76"/>
       <c r="D15" s="110"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="75" t="s">
         <v>20</v>
@@ -2466,7 +2357,7 @@
       </c>
       <c r="D16" s="110"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="75"/>
       <c r="C17" s="80" t="s">
@@ -2474,7 +2365,7 @@
       </c>
       <c r="D17" s="110"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="75"/>
       <c r="C18" s="81" t="s">
@@ -2482,7 +2373,7 @@
       </c>
       <c r="D18" s="110"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="75"/>
       <c r="C19" s="82" t="s">
@@ -2490,7 +2381,7 @@
       </c>
       <c r="D19" s="110"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="83"/>
       <c r="C20" s="84" t="s">
@@ -2498,7 +2389,7 @@
       </c>
       <c r="D20" s="110"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="83"/>
       <c r="C21" s="85" t="s">
@@ -2506,7 +2397,7 @@
       </c>
       <c r="D21" s="110"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="83"/>
       <c r="C22" s="86" t="s">
@@ -2514,14 +2405,14 @@
       </c>
       <c r="D22" s="110"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="83"/>
       <c r="C23" s="87" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="110"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="111"/>
       <c r="C24" s="112"/>
       <c r="D24" s="113"/>
@@ -2529,74 +2420,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="139" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="142"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="145"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
       <c r="E3" s="144"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="F3" s="144"/>
+      <c r="G3" s="146"/>
+    </row>
+    <row r="4" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="147"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="149"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2607,7 +2495,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="88"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -2628,7 +2516,7 @@
       </c>
       <c r="J7" s="90"/>
     </row>
-    <row r="8" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -2639,7 +2527,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="18" t="s">
         <v>47</v>
@@ -2652,7 +2540,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="94" t="s">
         <v>36</v>
@@ -2674,7 +2562,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="96" t="s">
         <v>37</v>
@@ -2694,7 +2582,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="34" t="s">
         <v>38</v>
@@ -2708,7 +2596,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="134" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="97" t="s">
@@ -2716,10 +2604,10 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>42</v>
@@ -2730,15 +2618,15 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="149" t="s">
-        <v>59</v>
+      <c r="I13" s="140" t="s">
+        <v>58</v>
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="14" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -2751,47 +2639,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2806,24 +2657,23 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="63" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="63" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="63" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="63" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="63" customWidth="1"/>
-    <col min="9" max="10" width="9.875" style="64" customWidth="1"/>
-    <col min="11" max="11" width="2.75" style="64" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="63" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="63" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="63" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="63" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" style="64" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="64" customWidth="1"/>
     <col min="12" max="12" width="60" style="63" customWidth="1"/>
-    <col min="13" max="16384" width="10.625" style="63"/>
+    <col min="13" max="16384" width="10.7109375" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19">
+    <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -2836,7 +2686,7 @@
       <c r="K2" s="67"/>
       <c r="L2" s="68"/>
     </row>
-    <row r="3" spans="2:19" s="24" customFormat="1">
+    <row r="3" spans="2:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="93" t="s">
         <v>29</v>
@@ -2851,17 +2701,17 @@
       </c>
       <c r="H3" s="93"/>
       <c r="I3" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="61"/>
       <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="69"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -2874,7 +2724,7 @@
       <c r="K4" s="92"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="16" thickBot="1">
+    <row r="5" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="69"/>
       <c r="C5" s="18" t="s">
         <v>44</v>
@@ -2889,7 +2739,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:19" ht="16" thickBot="1">
+    <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="69"/>
       <c r="C6" s="99" t="s">
         <v>36</v>
@@ -2914,10 +2764,10 @@
       <c r="J6" s="17"/>
       <c r="K6" s="16"/>
       <c r="L6" s="114" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="100" t="s">
         <v>37</v>
@@ -2942,10 +2792,10 @@
       <c r="J7" s="17"/>
       <c r="K7" s="16"/>
       <c r="L7" s="114" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="101" t="s">
         <v>38</v>
@@ -2970,13 +2820,13 @@
       <c r="J8" s="17"/>
       <c r="K8" s="16"/>
       <c r="L8" s="114" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" s="133" customFormat="1" ht="16" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" s="133" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="128"/>
       <c r="C9" s="129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="129"/>
@@ -3005,11 +2855,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3024,23 +2869,23 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
     <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="44" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="44"/>
+    <col min="7" max="7" width="10.28515625" style="44" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="46"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -3053,7 +2898,7 @@
       <c r="K2" s="48"/>
       <c r="L2" s="47"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="49"/>
       <c r="C3" s="50" t="s">
         <v>10</v>
@@ -3068,7 +2913,7 @@
       <c r="K3" s="51"/>
       <c r="L3" s="52"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="49"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
@@ -3081,7 +2926,7 @@
       <c r="K4" s="53"/>
       <c r="L4" s="52"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="54"/>
       <c r="C5" s="55" t="s">
         <v>12</v>
@@ -3110,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="49"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -3123,30 +2968,30 @@
       <c r="K6" s="51"/>
       <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
       <c r="C7" s="126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="53" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
-      <c r="K7" s="148" t="s">
-        <v>62</v>
+      <c r="K7" s="139" t="s">
+        <v>61</v>
       </c>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="49"/>
       <c r="C8" s="107"/>
       <c r="D8" s="57"/>
@@ -3158,7 +3003,7 @@
       <c r="K8" s="53"/>
       <c r="L8" s="62"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="49"/>
       <c r="C9" s="107"/>
       <c r="D9" s="57"/>
@@ -3171,7 +3016,7 @@
       <c r="K9" s="53"/>
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="2:12" ht="16">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="49"/>
       <c r="C10" s="107"/>
       <c r="D10" s="60"/>
@@ -3187,11 +3032,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3203,19 +3043,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="95" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="95" customWidth="1"/>
     <col min="2" max="2" width="5" style="95" customWidth="1"/>
     <col min="3" max="5" width="7" style="95"/>
-    <col min="6" max="6" width="10.875" style="95" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="95" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="95" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="95" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="24" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="117"/>
       <c r="C2" s="118" t="s">
         <v>24</v>
@@ -3247,7 +3087,7 @@
       <c r="X2" s="119"/>
       <c r="Y2" s="119"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="120"/>
       <c r="C3" s="121"/>
       <c r="D3" s="121"/>
@@ -3273,10 +3113,10 @@
       <c r="X3" s="121"/>
       <c r="Y3" s="121"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="120"/>
       <c r="C4" s="122" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="123"/>
       <c r="E4" s="123"/>
@@ -3301,7 +3141,7 @@
       <c r="X4" s="102"/>
       <c r="Y4" s="102"/>
     </row>
-    <row r="5" spans="2:25" ht="16">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" s="120"/>
       <c r="C5" s="123"/>
       <c r="D5" s="123"/>
@@ -3327,7 +3167,7 @@
       <c r="X5" s="102"/>
       <c r="Y5" s="102"/>
     </row>
-    <row r="6" spans="2:25" ht="16">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="120"/>
       <c r="C6" s="123"/>
       <c r="D6" s="123"/>
@@ -3353,7 +3193,7 @@
       <c r="X6" s="102"/>
       <c r="Y6" s="102"/>
     </row>
-    <row r="7" spans="2:25" ht="16">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="120"/>
       <c r="C7" s="123"/>
       <c r="D7" s="123"/>
@@ -3379,7 +3219,7 @@
       <c r="X7" s="102"/>
       <c r="Y7" s="102"/>
     </row>
-    <row r="8" spans="2:25" ht="16">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="120"/>
       <c r="C8" s="123"/>
       <c r="D8" s="136"/>
@@ -3405,7 +3245,7 @@
       <c r="X8" s="102"/>
       <c r="Y8" s="102"/>
     </row>
-    <row r="9" spans="2:25" ht="16">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="120"/>
       <c r="C9" s="123"/>
       <c r="D9" s="138"/>
@@ -3431,7 +3271,7 @@
       <c r="X9" s="102"/>
       <c r="Y9" s="102"/>
     </row>
-    <row r="10" spans="2:25" ht="16">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="120"/>
       <c r="C10" s="123"/>
       <c r="D10" s="138"/>
@@ -3457,7 +3297,7 @@
       <c r="X10" s="102"/>
       <c r="Y10" s="102"/>
     </row>
-    <row r="11" spans="2:25" ht="16">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="120"/>
       <c r="C11" s="123"/>
       <c r="D11" s="138"/>
@@ -3483,7 +3323,7 @@
       <c r="X11" s="102"/>
       <c r="Y11" s="102"/>
     </row>
-    <row r="12" spans="2:25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B12" s="120"/>
       <c r="C12" s="102"/>
       <c r="D12" s="137"/>
@@ -3509,7 +3349,7 @@
       <c r="X12" s="102"/>
       <c r="Y12" s="102"/>
     </row>
-    <row r="13" spans="2:25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B13" s="120"/>
       <c r="C13" s="102"/>
       <c r="D13" s="102"/>
@@ -3535,7 +3375,7 @@
       <c r="X13" s="102"/>
       <c r="Y13" s="102"/>
     </row>
-    <row r="14" spans="2:25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B14" s="120"/>
       <c r="C14" s="102"/>
       <c r="D14" s="102"/>
@@ -3561,7 +3401,7 @@
       <c r="X14" s="102"/>
       <c r="Y14" s="102"/>
     </row>
-    <row r="15" spans="2:25">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="120"/>
       <c r="C15" s="102"/>
       <c r="D15" s="102"/>
@@ -3587,7 +3427,7 @@
       <c r="X15" s="102"/>
       <c r="Y15" s="102"/>
     </row>
-    <row r="16" spans="2:25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="120"/>
       <c r="C16" s="102"/>
       <c r="D16" s="102"/>
@@ -3613,7 +3453,7 @@
       <c r="X16" s="102"/>
       <c r="Y16" s="102"/>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="120"/>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
@@ -3639,7 +3479,7 @@
       <c r="X17" s="102"/>
       <c r="Y17" s="102"/>
     </row>
-    <row r="18" spans="2:25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="120"/>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
@@ -3665,7 +3505,7 @@
       <c r="X18" s="102"/>
       <c r="Y18" s="102"/>
     </row>
-    <row r="19" spans="2:25">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="120"/>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
@@ -3691,7 +3531,7 @@
       <c r="X19" s="102"/>
       <c r="Y19" s="102"/>
     </row>
-    <row r="20" spans="2:25" ht="16">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="120"/>
       <c r="C20" s="102"/>
       <c r="D20" s="138"/>
@@ -3717,7 +3557,7 @@
       <c r="X20" s="102"/>
       <c r="Y20" s="102"/>
     </row>
-    <row r="21" spans="2:25" ht="16">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="120"/>
       <c r="C21" s="102"/>
       <c r="D21" s="123"/>
@@ -3743,7 +3583,7 @@
       <c r="X21" s="102"/>
       <c r="Y21" s="102"/>
     </row>
-    <row r="22" spans="2:25" ht="16">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="120"/>
       <c r="C22" s="102"/>
       <c r="D22" s="123"/>
@@ -3769,7 +3609,7 @@
       <c r="X22" s="102"/>
       <c r="Y22" s="102"/>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="120"/>
       <c r="C23" s="102"/>
       <c r="D23" s="102"/>
@@ -3795,7 +3635,7 @@
       <c r="X23" s="102"/>
       <c r="Y23" s="102"/>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B24" s="120"/>
       <c r="C24" s="102"/>
       <c r="D24" s="102"/>
@@ -3821,7 +3661,7 @@
       <c r="X24" s="102"/>
       <c r="Y24" s="102"/>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="120"/>
       <c r="C25" s="102"/>
       <c r="D25" s="102"/>
@@ -3847,7 +3687,7 @@
       <c r="X25" s="102"/>
       <c r="Y25" s="102"/>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="120"/>
       <c r="C26" s="102"/>
       <c r="D26" s="102"/>
@@ -3873,7 +3713,7 @@
       <c r="X26" s="102"/>
       <c r="Y26" s="102"/>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="120"/>
       <c r="C27" s="102"/>
       <c r="D27" s="102"/>
@@ -3899,7 +3739,7 @@
       <c r="X27" s="102"/>
       <c r="Y27" s="102"/>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="120"/>
       <c r="C28" s="102"/>
       <c r="D28" s="102"/>
@@ -3925,7 +3765,7 @@
       <c r="X28" s="102"/>
       <c r="Y28" s="102"/>
     </row>
-    <row r="29" spans="2:25" ht="16">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="120"/>
       <c r="C29" s="125"/>
       <c r="D29" s="125"/>
@@ -3951,7 +3791,7 @@
       <c r="X29" s="125"/>
       <c r="Y29" s="125"/>
     </row>
-    <row r="30" spans="2:25" ht="16">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B30" s="120"/>
       <c r="C30" s="125"/>
       <c r="D30" s="125"/>
@@ -3977,7 +3817,7 @@
       <c r="X30" s="125"/>
       <c r="Y30" s="125"/>
     </row>
-    <row r="31" spans="2:25" ht="16">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B31" s="120"/>
       <c r="C31" s="125"/>
       <c r="D31" s="125"/>
@@ -4003,7 +3843,7 @@
       <c r="X31" s="125"/>
       <c r="Y31" s="125"/>
     </row>
-    <row r="32" spans="2:25" ht="16">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="120"/>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
@@ -4029,7 +3869,7 @@
       <c r="X32" s="125"/>
       <c r="Y32" s="125"/>
     </row>
-    <row r="33" spans="2:25" ht="16">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="120"/>
       <c r="C33" s="125"/>
       <c r="D33" s="125"/>
@@ -4055,7 +3895,7 @@
       <c r="X33" s="125"/>
       <c r="Y33" s="125"/>
     </row>
-    <row r="34" spans="2:25" ht="16">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B34" s="120"/>
       <c r="C34" s="125"/>
       <c r="D34" s="125"/>
@@ -4081,7 +3921,7 @@
       <c r="X34" s="125"/>
       <c r="Y34" s="125"/>
     </row>
-    <row r="35" spans="2:25" ht="16">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="120"/>
       <c r="C35" s="125"/>
       <c r="D35" s="125"/>
@@ -4107,7 +3947,7 @@
       <c r="X35" s="125"/>
       <c r="Y35" s="125"/>
     </row>
-    <row r="36" spans="2:25" ht="16">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="120"/>
       <c r="C36" s="125"/>
       <c r="D36" s="125"/>
@@ -4133,7 +3973,7 @@
       <c r="X36" s="125"/>
       <c r="Y36" s="125"/>
     </row>
-    <row r="37" spans="2:25" ht="16">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="120"/>
       <c r="C37" s="125"/>
       <c r="D37" s="125"/>
@@ -4159,7 +3999,7 @@
       <c r="X37" s="125"/>
       <c r="Y37" s="125"/>
     </row>
-    <row r="38" spans="2:25" ht="16">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B38" s="120"/>
       <c r="C38" s="125"/>
       <c r="D38" s="125"/>
@@ -4185,7 +4025,7 @@
       <c r="X38" s="125"/>
       <c r="Y38" s="125"/>
     </row>
-    <row r="39" spans="2:25" ht="16">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="120"/>
       <c r="C39" s="125"/>
       <c r="D39" s="125"/>
@@ -4211,7 +4051,7 @@
       <c r="X39" s="125"/>
       <c r="Y39" s="125"/>
     </row>
-    <row r="40" spans="2:25" ht="16">
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B40" s="120"/>
       <c r="C40" s="125"/>
       <c r="D40" s="125"/>
@@ -4237,7 +4077,7 @@
       <c r="X40" s="125"/>
       <c r="Y40" s="125"/>
     </row>
-    <row r="41" spans="2:25" ht="16">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B41" s="120"/>
       <c r="C41" s="125"/>
       <c r="D41" s="123">
@@ -4249,10 +4089,10 @@
         <v>100000</v>
       </c>
       <c r="H41" s="123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I41" s="123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J41" s="125"/>
       <c r="K41" s="125"/>
@@ -4271,7 +4111,7 @@
       <c r="X41" s="125"/>
       <c r="Y41" s="125"/>
     </row>
-    <row r="42" spans="2:25" ht="16">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" s="120"/>
       <c r="C42" s="125"/>
       <c r="D42" s="125"/>
@@ -4282,7 +4122,7 @@
         <v>1000000</v>
       </c>
       <c r="H42" s="123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I42" s="125"/>
       <c r="J42" s="125"/>
@@ -4302,7 +4142,7 @@
       <c r="X42" s="125"/>
       <c r="Y42" s="125"/>
     </row>
-    <row r="43" spans="2:25" ht="16">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B43" s="120"/>
       <c r="C43" s="125"/>
       <c r="D43" s="125"/>
@@ -4313,7 +4153,7 @@
         <v>0.1</v>
       </c>
       <c r="H43" s="123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I43" s="125"/>
       <c r="J43" s="125"/>
@@ -4333,7 +4173,7 @@
       <c r="X43" s="125"/>
       <c r="Y43" s="125"/>
     </row>
-    <row r="44" spans="2:25" ht="16">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B44" s="120"/>
       <c r="C44" s="125"/>
       <c r="D44" s="125"/>
@@ -4359,7 +4199,7 @@
       <c r="X44" s="125"/>
       <c r="Y44" s="125"/>
     </row>
-    <row r="45" spans="2:25" ht="16">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="120"/>
       <c r="C45" s="125"/>
       <c r="D45" s="125"/>
@@ -4385,7 +4225,7 @@
       <c r="X45" s="125"/>
       <c r="Y45" s="125"/>
     </row>
-    <row r="46" spans="2:25" ht="16">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="120"/>
       <c r="C46" s="125"/>
       <c r="D46" s="125"/>
@@ -4411,7 +4251,7 @@
       <c r="X46" s="125"/>
       <c r="Y46" s="125"/>
     </row>
-    <row r="47" spans="2:25" ht="16">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B47" s="120"/>
       <c r="C47" s="125"/>
       <c r="D47" s="125"/>
@@ -4437,7 +4277,7 @@
       <c r="X47" s="125"/>
       <c r="Y47" s="125"/>
     </row>
-    <row r="48" spans="2:25" ht="16">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" s="120"/>
       <c r="C48" s="125"/>
       <c r="D48" s="125"/>
@@ -4467,10 +4307,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/biogenic_waste.carrier.xlsx
+++ b/carriers_source_analyses/biogenic_waste.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyradehaan/github/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B9B748-5AB4-DE44-AA75-09234614FE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D75FA-E85F-C342-B9CF-B559D474FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26520" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>Source</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Date retrieved</t>
   </si>
   <si>
-    <t>Alexander Wirtz</t>
-  </si>
-  <si>
     <t>sustainable</t>
   </si>
   <si>
@@ -206,24 +203,6 @@
   </si>
   <si>
     <t>Quintel</t>
-  </si>
-  <si>
-    <t>by definition</t>
-  </si>
-  <si>
-    <t>by assumption</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
-  </si>
-  <si>
-    <t>kg CO2/TJ</t>
-  </si>
-  <si>
-    <t>TJ/MJ</t>
-  </si>
-  <si>
-    <t>municipal wastes (biomass fraction)</t>
   </si>
   <si>
     <r>
@@ -248,21 +227,90 @@
     </r>
   </si>
   <si>
-    <t>IPCC</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1710</t>
-  </si>
-  <si>
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>mj_per_kg</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>TNO</t>
+  </si>
+  <si>
+    <t>TNO table:</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>CO2 (kg/MJ)</t>
+  </si>
+  <si>
+    <t>Density (MJ/kg)</t>
+  </si>
+  <si>
+    <t>non-biogenic waste</t>
+  </si>
+  <si>
+    <t>biogenic waste</t>
+  </si>
+  <si>
+    <t>Waste first value in D Other fuels is non-biogenic</t>
+  </si>
+  <si>
+    <t>Waste second value in D Other fuels is biogenic</t>
+  </si>
+  <si>
+    <t>Energy content and CO2 emission factor</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Update of the Netherlands list of fuels in 2021</t>
+  </si>
+  <si>
+    <t>https://repository.tno.nl/SingleDoc?find=UID%202f9779a2-dd73-4f7f-9494-a44ddb7550d6</t>
+  </si>
+  <si>
+    <t>Claudia Valkenier</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Waste costs as feedstock for methanol production are either zero or negative</t>
+  </si>
+  <si>
+    <t>therefore, costs for waste are assumed to be zero</t>
+  </si>
+  <si>
+    <t>costs per MJ</t>
+  </si>
+  <si>
+    <t>IEA table pg  29</t>
+  </si>
+  <si>
+    <t>Costs per MJ</t>
+  </si>
+  <si>
+    <t>IEA</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Advanced Biofuels – Potential for Cost Reduction</t>
+  </si>
+  <si>
+    <t>https://task39.ieabioenergy.com/wp-content/uploads/sites/37/2020/02/Advanced-Biofuels-Potential-for-Cost-Reduction-Final-Draft.pdf</t>
   </si>
 </sst>
 </file>
@@ -272,9 +320,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="[$-413]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,6 +439,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,6 +447,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,6 +455,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,6 +463,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,17 +471,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,6 +498,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,11 +515,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF474747"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
@@ -476,6 +527,18 @@
       <color rgb="FF000000"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
     </font>
   </fonts>
   <fills count="13">
@@ -552,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -781,6 +844,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1127,18 +1231,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1154,36 +1255,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1191,37 +1284,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1230,97 +1303,156 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="183" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="183" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1333,7 +1465,7 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1348,6 +1480,16 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="340">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1708,23 +1850,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76752</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>294666</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98868E7-AC68-5449-82D4-ABBFB0126484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,8 +1882,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874000" y="114655600"/>
-          <a:ext cx="9779000" cy="8293100"/>
+          <a:off x="7653130" y="817217"/>
+          <a:ext cx="6655710" cy="7147892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>350401</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>63883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570FECBF-1CD7-8245-8083-39D57BF90241}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12036136" y="8697576"/>
+          <a:ext cx="9105704" cy="6134868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>267854</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>39573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC40038-B68F-1744-BFB0-15B062D4EDD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12036136" y="14970606"/>
+          <a:ext cx="7772400" cy="1857982"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1754,7 +1984,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2192,195 +2422,195 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+    <row r="1" spans="1:4" s="24" customFormat="1">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="7"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
+      <c r="C5" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="77"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="108"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="78"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="108"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="18" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="108"/>
+      <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="78" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="108"/>
+      <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="108"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="108"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="78"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="108"/>
+      <c r="D16" s="78"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="80" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="108"/>
+      <c r="D17" s="78"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="81" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="108"/>
+      <c r="D18" s="78"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="82" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="108"/>
+      <c r="D19" s="78"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="85" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="108"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="86" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="108"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="83"/>
-      <c r="C23" s="87" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="108"/>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2393,150 +2623,162 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J11"/>
+  <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="46" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="45" style="29" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="137"/>
+      <c r="B2" s="155" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="138"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
     </row>
     <row r="4" spans="2:10" ht="36" customHeight="1">
-      <c r="B4" s="141"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
-    </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1">
-      <c r="D5" s="33"/>
-    </row>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="163"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="36"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="2:10" s="41" customFormat="1" ht="19">
-      <c r="B7" s="88"/>
-      <c r="C7" s="19" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="2:10" s="36" customFormat="1" ht="19">
+      <c r="B7" s="70"/>
+      <c r="C7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="90"/>
-    </row>
-    <row r="8" spans="2:10" s="41" customFormat="1" ht="19">
-      <c r="B8" s="23"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="42"/>
-    </row>
-    <row r="10" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="J7" s="72"/>
+    </row>
+    <row r="8" spans="2:10" s="36" customFormat="1" ht="19">
+      <c r="B8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="2:10" s="36" customFormat="1" ht="20" thickBot="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="2:10" s="36" customFormat="1" ht="20" thickBot="1">
+      <c r="B10" s="21"/>
+      <c r="C10" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="93">
         <f>'Research data'!G6</f>
         <v>1</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="96" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="113" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="2:10" s="36" customFormat="1" ht="20" thickBot="1">
+      <c r="B11" s="21"/>
+      <c r="C11" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="90">
+        <f>'Research data'!G8</f>
+        <v>11.6</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2552,206 +2794,259 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:S9"/>
+  <dimension ref="B1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="63" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="63" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="63" customWidth="1"/>
-    <col min="9" max="10" width="9.85546875" style="64" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="64" customWidth="1"/>
-    <col min="12" max="12" width="60" style="63" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="63"/>
+    <col min="1" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="48" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="48" customWidth="1"/>
+    <col min="9" max="10" width="9.85546875" style="49" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="49" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="49" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="49" customWidth="1"/>
+    <col min="14" max="14" width="60" style="48" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17" thickBot="1"/>
-    <row r="2" spans="2:19">
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-    </row>
-    <row r="3" spans="2:19" s="24" customFormat="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="93" t="s">
+    <row r="1" spans="2:21" ht="17" thickBot="1"/>
+    <row r="2" spans="2:21">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+    </row>
+    <row r="3" spans="2:21" s="16" customFormat="1">
+      <c r="B3" s="21"/>
+      <c r="C3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="93" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="1" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="47"/>
+      <c r="N3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:19" ht="17" thickBot="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:19" ht="17" thickBot="1">
-      <c r="B6" s="69"/>
-      <c r="C6" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="22" t="s">
+    <row r="4" spans="2:21">
+      <c r="B4" s="54"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" ht="17" thickBot="1">
+      <c r="B5" s="54"/>
+      <c r="C5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:21" ht="17" thickBot="1">
+      <c r="B6" s="54"/>
+      <c r="C6" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="90">
         <f>I6</f>
         <v>1</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="17">
+      <c r="H6" s="101"/>
+      <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="B7" s="5"/>
-      <c r="C7" s="99" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="82"/>
+    </row>
+    <row r="7" spans="2:21" s="5" customFormat="1" ht="17" thickBot="1">
+      <c r="B7" s="4"/>
+      <c r="C7" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="90">
+        <f>L7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="103"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="82"/>
+    </row>
+    <row r="8" spans="2:21" s="5" customFormat="1" ht="17" thickBot="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="90">
+        <f>ROUND(J8,3)</f>
+        <v>11.6</v>
+      </c>
+      <c r="H8" s="103"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="91">
+        <f>Notes!E11</f>
+        <v>11.6</v>
+      </c>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="82"/>
+    </row>
+    <row r="9" spans="2:21" s="5" customFormat="1" ht="17" thickBot="1">
+      <c r="B9" s="4"/>
+      <c r="C9" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D9" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E9" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="105">
-        <f>I7</f>
+      <c r="F9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="90">
+        <f>I9</f>
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="17">
+      <c r="H9" s="103"/>
+      <c r="I9" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="100" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="43">
-        <f>I8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" s="130" customFormat="1" ht="17" thickBot="1">
-      <c r="B9" s="125"/>
-      <c r="C9" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="127">
-        <f>J9</f>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="82"/>
+    </row>
+    <row r="10" spans="2:21" s="83" customFormat="1" ht="17" thickBot="1">
+      <c r="B10" s="84"/>
+      <c r="C10" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="85">
+        <f>ROUND(J10,3)</f>
         <v>0.1</v>
       </c>
-      <c r="H9" s="128"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="127">
-        <f>Notes!G43</f>
+      <c r="H10" s="106"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="92">
+        <f>Notes!E10</f>
         <v>0.1</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="129"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="86"/>
+    </row>
+    <row r="11" spans="2:21" ht="17" thickBot="1">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2767,170 +3062,176 @@
   <dimension ref="B1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="44" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="44" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="44"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="38" customWidth="1"/>
+    <col min="6" max="6" width="5" style="38" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="38" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="38" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="38" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="132"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="52"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="49"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="52"/>
+      <c r="B4" s="43"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="136" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="50"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="49"/>
-      <c r="C7" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="134" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="62"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="119">
+        <v>2021</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="139">
+        <v>45898</v>
+      </c>
+      <c r="K7" s="140"/>
+      <c r="L7" s="141" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="49"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="101"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="62"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="144"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="L8" s="145"/>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="49"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="49"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="104"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="H9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="166">
+        <v>45901</v>
+      </c>
+      <c r="L9" s="167" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="17" thickBot="1">
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="154"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L7" r:id="rId1" xr:uid="{99D474C7-4328-0641-8EC0-AD55C5438CA2}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{47587697-C98B-9841-8E00-A18BB6B98494}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -2938,1271 +3239,1323 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:Y48"/>
+  <dimension ref="B1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C29" zoomScale="132" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="5" style="95" customWidth="1"/>
-    <col min="3" max="5" width="7" style="95"/>
-    <col min="6" max="6" width="10.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="95" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="95" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="7" style="95"/>
+    <col min="1" max="1" width="5.42578125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="5" style="75" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="75" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="75" customWidth="1"/>
+    <col min="5" max="5" width="20" style="75" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1"/>
-    <row r="2" spans="2:25" s="24" customFormat="1">
-      <c r="B2" s="114"/>
-      <c r="C2" s="115" t="s">
+    <row r="1" spans="2:28" ht="17" thickBot="1"/>
+    <row r="2" spans="2:28" s="16" customFormat="1">
+      <c r="B2" s="124"/>
+      <c r="C2" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115" t="s">
+      <c r="D2" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-    </row>
-    <row r="3" spans="2:25">
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-    </row>
-    <row r="4" spans="2:25" customFormat="1">
-      <c r="B4" s="117"/>
-      <c r="C4" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-    </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="117"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-    </row>
-    <row r="6" spans="2:25">
-      <c r="B6" s="117"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-    </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="117"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="117"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-    </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="117"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="B10" s="117"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="101"/>
-      <c r="Y10" s="101"/>
-    </row>
-    <row r="11" spans="2:25">
-      <c r="B11" s="117"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-    </row>
-    <row r="12" spans="2:25">
-      <c r="B12" s="117"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="101"/>
-    </row>
-    <row r="13" spans="2:25">
-      <c r="B13" s="117"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-    </row>
-    <row r="14" spans="2:25">
-      <c r="B14" s="117"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-    </row>
-    <row r="15" spans="2:25">
-      <c r="B15" s="117"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-    </row>
-    <row r="16" spans="2:25">
-      <c r="B16" s="117"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-    </row>
-    <row r="17" spans="2:25">
-      <c r="B17" s="117"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-    </row>
-    <row r="18" spans="2:25">
-      <c r="B18" s="117"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-    </row>
-    <row r="19" spans="2:25">
-      <c r="B19" s="117"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-    </row>
-    <row r="20" spans="2:25">
-      <c r="B20" s="117"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-    </row>
-    <row r="21" spans="2:25">
-      <c r="B21" s="117"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-    </row>
-    <row r="22" spans="2:25">
-      <c r="B22" s="117"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-    </row>
-    <row r="23" spans="2:25">
-      <c r="B23" s="117"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-    </row>
-    <row r="24" spans="2:25">
-      <c r="B24" s="117"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="101"/>
-      <c r="Y24" s="101"/>
-    </row>
-    <row r="25" spans="2:25">
-      <c r="B25" s="117"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-    </row>
-    <row r="26" spans="2:25">
-      <c r="B26" s="117"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-    </row>
-    <row r="27" spans="2:25">
-      <c r="B27" s="117"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-    </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="117"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-    </row>
-    <row r="29" spans="2:25">
-      <c r="B29" s="117"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="122"/>
-      <c r="V29" s="122"/>
-      <c r="W29" s="122"/>
-      <c r="X29" s="122"/>
-      <c r="Y29" s="122"/>
-    </row>
-    <row r="30" spans="2:25">
-      <c r="B30" s="117"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="122"/>
-      <c r="X30" s="122"/>
-      <c r="Y30" s="122"/>
-    </row>
-    <row r="31" spans="2:25">
-      <c r="B31" s="117"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-    </row>
-    <row r="32" spans="2:25">
-      <c r="B32" s="117"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="122"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="122"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="122"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="122"/>
-      <c r="V32" s="122"/>
-      <c r="W32" s="122"/>
-      <c r="X32" s="122"/>
-      <c r="Y32" s="122"/>
-    </row>
-    <row r="33" spans="2:25">
-      <c r="B33" s="117"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="122"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="122"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="122"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="122"/>
-      <c r="Q33" s="122"/>
-      <c r="R33" s="122"/>
-      <c r="S33" s="122"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="122"/>
-      <c r="V33" s="122"/>
-      <c r="W33" s="122"/>
-      <c r="X33" s="122"/>
-      <c r="Y33" s="122"/>
-    </row>
-    <row r="34" spans="2:25">
-      <c r="B34" s="117"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="122"/>
-      <c r="Q34" s="122"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="122"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
-      <c r="W34" s="122"/>
-      <c r="X34" s="122"/>
-      <c r="Y34" s="122"/>
-    </row>
-    <row r="35" spans="2:25">
-      <c r="B35" s="117"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="122"/>
-      <c r="P35" s="122"/>
-      <c r="Q35" s="122"/>
-      <c r="R35" s="122"/>
-      <c r="S35" s="122"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="122"/>
-      <c r="V35" s="122"/>
-      <c r="W35" s="122"/>
-      <c r="X35" s="122"/>
-      <c r="Y35" s="122"/>
-    </row>
-    <row r="36" spans="2:25">
-      <c r="B36" s="117"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="122"/>
-      <c r="K36" s="122"/>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
-    </row>
-    <row r="37" spans="2:25">
-      <c r="B37" s="117"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="122"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="122"/>
-      <c r="O37" s="122"/>
-      <c r="P37" s="122"/>
-      <c r="Q37" s="122"/>
-      <c r="R37" s="122"/>
-      <c r="S37" s="122"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
-      <c r="X37" s="122"/>
-      <c r="Y37" s="122"/>
-    </row>
-    <row r="38" spans="2:25">
-      <c r="B38" s="117"/>
-      <c r="C38" s="122"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="122"/>
-      <c r="S38" s="122"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="122"/>
-      <c r="V38" s="122"/>
-      <c r="W38" s="122"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="122"/>
-    </row>
-    <row r="39" spans="2:25">
-      <c r="B39" s="117"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="122"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="122"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="122"/>
-      <c r="O39" s="122"/>
-      <c r="P39" s="122"/>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="122"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="122"/>
-      <c r="V39" s="122"/>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-    </row>
-    <row r="40" spans="2:25">
-      <c r="B40" s="117"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="122"/>
-      <c r="O40" s="122"/>
-      <c r="P40" s="122"/>
-      <c r="Q40" s="122"/>
-      <c r="R40" s="122"/>
-      <c r="S40" s="122"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
-      <c r="W40" s="122"/>
-      <c r="X40" s="122"/>
-      <c r="Y40" s="122"/>
-    </row>
-    <row r="41" spans="2:25">
-      <c r="B41" s="117"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="120">
-        <v>1.24</v>
-      </c>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="120">
-        <v>100000</v>
-      </c>
-      <c r="H41" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="120" t="s">
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="131"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="AB3" s="113"/>
+    </row>
+    <row r="4" spans="2:28" customFormat="1">
+      <c r="B4" s="126"/>
+      <c r="C4" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="J41" s="122"/>
-      <c r="K41" s="122"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="122"/>
-      <c r="O41" s="122"/>
-      <c r="P41" s="122"/>
-      <c r="Q41" s="122"/>
-      <c r="R41" s="122"/>
-      <c r="S41" s="122"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="122"/>
-      <c r="V41" s="122"/>
-      <c r="W41" s="122"/>
-      <c r="X41" s="122"/>
-      <c r="Y41" s="122"/>
-    </row>
-    <row r="42" spans="2:25">
-      <c r="B42" s="117"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="120">
-        <f>10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="120" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="122"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
-      <c r="Y42" s="122"/>
-    </row>
-    <row r="43" spans="2:25">
-      <c r="B43" s="117"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="120">
-        <f>G41/G42</f>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="118"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="126"/>
+      <c r="C5" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="AB5" s="113"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="126"/>
+      <c r="C6" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="116"/>
+      <c r="Y6" s="116"/>
+      <c r="AB6" s="113"/>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" s="126"/>
+      <c r="C7" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="AB7" s="113"/>
+    </row>
+    <row r="8" spans="2:28">
+      <c r="B8" s="126"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="AB8" s="113"/>
+    </row>
+    <row r="9" spans="2:28">
+      <c r="B9" s="126"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
+      <c r="Y9" s="116"/>
+      <c r="AB9" s="113"/>
+    </row>
+    <row r="10" spans="2:28">
+      <c r="B10" s="126"/>
+      <c r="C10" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="75">
+        <f>91.7/1000</f>
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="E10" s="75">
+        <f>100/1000</f>
         <v>0.1</v>
       </c>
-      <c r="H43" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="122"/>
-      <c r="S43" s="122"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="122"/>
-      <c r="Y43" s="122"/>
-    </row>
-    <row r="44" spans="2:25">
-      <c r="B44" s="117"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
-      <c r="O44" s="122"/>
-      <c r="P44" s="122"/>
-      <c r="Q44" s="122"/>
-      <c r="R44" s="122"/>
-      <c r="S44" s="122"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="122"/>
-      <c r="V44" s="122"/>
-      <c r="W44" s="122"/>
-      <c r="X44" s="122"/>
-      <c r="Y44" s="122"/>
-    </row>
-    <row r="45" spans="2:25">
-      <c r="B45" s="117"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
-      <c r="O45" s="122"/>
-      <c r="P45" s="122"/>
-      <c r="Q45" s="122"/>
-      <c r="R45" s="122"/>
-      <c r="S45" s="122"/>
-      <c r="T45" s="122"/>
-      <c r="U45" s="122"/>
-      <c r="V45" s="122"/>
-      <c r="W45" s="122"/>
-      <c r="X45" s="122"/>
-      <c r="Y45" s="122"/>
-    </row>
-    <row r="46" spans="2:25">
-      <c r="B46" s="117"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="122"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="122"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="122"/>
-      <c r="O46" s="122"/>
-      <c r="P46" s="122"/>
-      <c r="Q46" s="122"/>
-      <c r="R46" s="122"/>
-      <c r="S46" s="122"/>
-      <c r="T46" s="122"/>
-      <c r="U46" s="122"/>
-      <c r="V46" s="122"/>
-      <c r="W46" s="122"/>
-      <c r="X46" s="122"/>
-      <c r="Y46" s="122"/>
-    </row>
-    <row r="47" spans="2:25">
-      <c r="B47" s="117"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="122"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="122"/>
-      <c r="O47" s="122"/>
-      <c r="P47" s="122"/>
-      <c r="Q47" s="122"/>
-      <c r="R47" s="122"/>
-      <c r="S47" s="122"/>
-      <c r="T47" s="122"/>
-      <c r="U47" s="122"/>
-      <c r="V47" s="122"/>
-      <c r="W47" s="122"/>
-      <c r="X47" s="122"/>
-      <c r="Y47" s="122"/>
-    </row>
-    <row r="48" spans="2:25">
-      <c r="B48" s="117"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
-      <c r="M48" s="122"/>
-      <c r="N48" s="122"/>
-      <c r="O48" s="122"/>
-      <c r="P48" s="122"/>
-      <c r="Q48" s="122"/>
-      <c r="R48" s="122"/>
-      <c r="S48" s="122"/>
-      <c r="T48" s="122"/>
-      <c r="U48" s="122"/>
-      <c r="V48" s="122"/>
-      <c r="W48" s="122"/>
-      <c r="X48" s="122"/>
-      <c r="Y48" s="122"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="AB10" s="113"/>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="B11" s="126"/>
+      <c r="C11" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="75">
+        <v>10</v>
+      </c>
+      <c r="E11" s="75">
+        <v>11.6</v>
+      </c>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="AB11" s="113"/>
+    </row>
+    <row r="12" spans="2:28">
+      <c r="B12" s="126"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="116"/>
+      <c r="T12" s="116"/>
+      <c r="U12" s="116"/>
+      <c r="V12" s="116"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="116"/>
+      <c r="Y12" s="116"/>
+      <c r="AB12" s="113"/>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" s="126"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="AB13" s="113"/>
+    </row>
+    <row r="14" spans="2:28">
+      <c r="B14" s="126"/>
+      <c r="C14" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="116"/>
+      <c r="P14" s="116"/>
+      <c r="Q14" s="116"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="116"/>
+      <c r="T14" s="116"/>
+      <c r="U14" s="116"/>
+      <c r="V14" s="116"/>
+      <c r="W14" s="116"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="116"/>
+      <c r="AB14" s="113"/>
+    </row>
+    <row r="15" spans="2:28">
+      <c r="B15" s="126"/>
+      <c r="C15" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="116"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="116"/>
+      <c r="W15" s="116"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="116"/>
+      <c r="AB15" s="113"/>
+    </row>
+    <row r="16" spans="2:28">
+      <c r="B16" s="126"/>
+      <c r="C16" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="AB16" s="113"/>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="126"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="116"/>
+      <c r="T17" s="116"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="AB17" s="113"/>
+    </row>
+    <row r="18" spans="2:28">
+      <c r="B18" s="126"/>
+      <c r="C18" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="117">
+        <v>0</v>
+      </c>
+      <c r="E18" s="117"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="116"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="116"/>
+      <c r="T18" s="116"/>
+      <c r="U18" s="116"/>
+      <c r="V18" s="116"/>
+      <c r="W18" s="116"/>
+      <c r="X18" s="116"/>
+      <c r="Y18" s="116"/>
+      <c r="AB18" s="113"/>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="B19" s="126"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="AB19" s="113"/>
+    </row>
+    <row r="20" spans="2:28">
+      <c r="B20" s="126"/>
+      <c r="C20" s="116"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="AB20" s="113"/>
+    </row>
+    <row r="21" spans="2:28">
+      <c r="B21" s="126"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
+      <c r="T21" s="116"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="AB21" s="113"/>
+    </row>
+    <row r="22" spans="2:28">
+      <c r="B22" s="126"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="116"/>
+      <c r="U22" s="116"/>
+      <c r="V22" s="116"/>
+      <c r="W22" s="116"/>
+      <c r="X22" s="116"/>
+      <c r="Y22" s="116"/>
+      <c r="AB22" s="113"/>
+    </row>
+    <row r="23" spans="2:28">
+      <c r="B23" s="126"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="116"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="116"/>
+      <c r="Y23" s="116"/>
+      <c r="AB23" s="113"/>
+    </row>
+    <row r="24" spans="2:28">
+      <c r="B24" s="126"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="116"/>
+      <c r="T24" s="116"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="AB24" s="113"/>
+    </row>
+    <row r="25" spans="2:28">
+      <c r="B25" s="126"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="116"/>
+      <c r="T25" s="116"/>
+      <c r="U25" s="116"/>
+      <c r="V25" s="116"/>
+      <c r="W25" s="116"/>
+      <c r="X25" s="116"/>
+      <c r="Y25" s="116"/>
+      <c r="AB25" s="113"/>
+    </row>
+    <row r="26" spans="2:28">
+      <c r="B26" s="126"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
+      <c r="P26" s="116"/>
+      <c r="Q26" s="116"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="116"/>
+      <c r="T26" s="116"/>
+      <c r="U26" s="116"/>
+      <c r="V26" s="116"/>
+      <c r="W26" s="116"/>
+      <c r="X26" s="116"/>
+      <c r="Y26" s="116"/>
+      <c r="AB26" s="113"/>
+    </row>
+    <row r="27" spans="2:28">
+      <c r="B27" s="126"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="116"/>
+      <c r="Y27" s="116"/>
+      <c r="AB27" s="113"/>
+    </row>
+    <row r="28" spans="2:28">
+      <c r="B28" s="126"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+      <c r="Q28" s="116"/>
+      <c r="R28" s="116"/>
+      <c r="S28" s="116"/>
+      <c r="T28" s="116"/>
+      <c r="U28" s="116"/>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="116"/>
+      <c r="Y28" s="116"/>
+      <c r="AB28" s="113"/>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="B29" s="126"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="AB29" s="113"/>
+    </row>
+    <row r="30" spans="2:28">
+      <c r="B30" s="126"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="121"/>
+      <c r="N30" s="121"/>
+      <c r="O30" s="121"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="AB30" s="113"/>
+    </row>
+    <row r="31" spans="2:28">
+      <c r="B31" s="126"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="121"/>
+      <c r="O31" s="121"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="AB31" s="113"/>
+    </row>
+    <row r="32" spans="2:28">
+      <c r="B32" s="126"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="AB32" s="113"/>
+    </row>
+    <row r="33" spans="2:28">
+      <c r="B33" s="126"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="121"/>
+      <c r="N33" s="121"/>
+      <c r="O33" s="121"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="AB33" s="113"/>
+    </row>
+    <row r="34" spans="2:28">
+      <c r="B34" s="126"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="121"/>
+      <c r="N34" s="121"/>
+      <c r="O34" s="121"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="AB34" s="113"/>
+    </row>
+    <row r="35" spans="2:28">
+      <c r="B35" s="126"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="121"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="AB35" s="113"/>
+    </row>
+    <row r="36" spans="2:28">
+      <c r="B36" s="126"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="121"/>
+      <c r="N36" s="121"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="121"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="121"/>
+      <c r="U36" s="121"/>
+      <c r="V36" s="121"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
+      <c r="AB36" s="113"/>
+    </row>
+    <row r="37" spans="2:28">
+      <c r="B37" s="126"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="121"/>
+      <c r="N37" s="121"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="121"/>
+      <c r="Q37" s="121"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="121"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
+      <c r="X37" s="121"/>
+      <c r="Y37" s="121"/>
+      <c r="AB37" s="113"/>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38" s="126"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="121"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="121"/>
+      <c r="U38" s="121"/>
+      <c r="V38" s="121"/>
+      <c r="W38" s="121"/>
+      <c r="X38" s="121"/>
+      <c r="Y38" s="121"/>
+      <c r="AB38" s="113"/>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="B39" s="126"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="121"/>
+      <c r="U39" s="121"/>
+      <c r="V39" s="121"/>
+      <c r="W39" s="121"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="121"/>
+      <c r="AB39" s="113"/>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="B40" s="126"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="121"/>
+      <c r="R40" s="121"/>
+      <c r="S40" s="121"/>
+      <c r="T40" s="121"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="121"/>
+      <c r="W40" s="121"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="121"/>
+      <c r="AB40" s="113"/>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="B41" s="126"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="121"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="121"/>
+      <c r="U41" s="121"/>
+      <c r="V41" s="121"/>
+      <c r="W41" s="121"/>
+      <c r="X41" s="121"/>
+      <c r="Y41" s="121"/>
+      <c r="AB41" s="113"/>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="B42" s="126"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="121"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="AB42" s="113"/>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="B43" s="126"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="121"/>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
+      <c r="W43" s="121"/>
+      <c r="X43" s="121"/>
+      <c r="Y43" s="121"/>
+      <c r="AB43" s="113"/>
+    </row>
+    <row r="44" spans="2:28">
+      <c r="B44" s="126"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="121"/>
+      <c r="U44" s="121"/>
+      <c r="V44" s="121"/>
+      <c r="W44" s="121"/>
+      <c r="X44" s="121"/>
+      <c r="Y44" s="121"/>
+      <c r="AB44" s="113"/>
+    </row>
+    <row r="45" spans="2:28">
+      <c r="B45" s="126"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="121"/>
+      <c r="S45" s="121"/>
+      <c r="T45" s="121"/>
+      <c r="U45" s="121"/>
+      <c r="V45" s="121"/>
+      <c r="W45" s="121"/>
+      <c r="X45" s="121"/>
+      <c r="Y45" s="121"/>
+      <c r="AB45" s="113"/>
+    </row>
+    <row r="46" spans="2:28">
+      <c r="B46" s="126"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="121"/>
+      <c r="S46" s="121"/>
+      <c r="T46" s="121"/>
+      <c r="U46" s="121"/>
+      <c r="V46" s="121"/>
+      <c r="W46" s="121"/>
+      <c r="X46" s="121"/>
+      <c r="Y46" s="121"/>
+      <c r="AB46" s="113"/>
+    </row>
+    <row r="47" spans="2:28">
+      <c r="B47" s="126"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
+      <c r="V47" s="121"/>
+      <c r="W47" s="121"/>
+      <c r="X47" s="121"/>
+      <c r="Y47" s="121"/>
+      <c r="AB47" s="113"/>
+    </row>
+    <row r="48" spans="2:28" ht="17" thickBot="1">
+      <c r="B48" s="128"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="122"/>
+      <c r="AA48" s="122"/>
+      <c r="AB48" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
